--- a/data/kriging_data.xlsx
+++ b/data/kriging_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Year 2022" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Year 2023" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Year 2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="All Years" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -2853,4 +2854,2170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.53365745025076</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.23362249718058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.42135570429699</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.94592671647101</v>
+      </c>
+      <c r="J3" t="n">
+        <v>728</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.40957388331014</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.9653024911032</v>
+      </c>
+      <c r="J4" t="n">
+        <v>188</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.90311074927064</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.87545787545788</v>
+      </c>
+      <c r="J5" t="n">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.08794870829683</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.75238095238095</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12.09048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78.90097</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.13218859989063</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.04284852142426</v>
+      </c>
+      <c r="J7" t="n">
+        <v>288</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.92572655996732</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.91177515966925</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.06372549019608</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.91602349177445</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.30612244897959</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.00570961721268</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.11522904599165</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1675</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.12330679576051</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.79503105590062</v>
+      </c>
+      <c r="J12" t="n">
+        <v>272</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.97829220236952</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.43177976334219</v>
+      </c>
+      <c r="J13" t="n">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.67544182052594</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.81556416554289</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1270</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.74945927399721</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.13859472207503</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.77479579929988</v>
+      </c>
+      <c r="J16" t="n">
+        <v>312</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.40832646937165</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.14424190696824</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1096</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>469</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D19" t="n">
+        <v>480</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.76331698954856</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.24526770828723</v>
+      </c>
+      <c r="J19" t="n">
+        <v>469</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B20" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.02291925093944</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.64119376772829</v>
+      </c>
+      <c r="J20" t="n">
+        <v>533</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>851</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.80984680425868</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.89489054139907</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12243</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>509</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.68845507482931</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.68261758691207</v>
+      </c>
+      <c r="J22" t="n">
+        <v>856</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="D23" t="n">
+        <v>382</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.37144107818333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.08910095429432</v>
+      </c>
+      <c r="J23" t="n">
+        <v>248</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B24" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D24" t="n">
+        <v>211</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.02772031608155</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.61199294532628</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>330</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.7490466214598</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.13266761768902</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.50449897443676</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.96740828766973</v>
+      </c>
+      <c r="J27" t="n">
+        <v>299</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12.09048</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78.90097</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.39091781042217</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.18528955372106</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.69523766201895</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.89932338554156</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1478</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.45768503835931</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.84258416742493</v>
+      </c>
+      <c r="J30" t="n">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B31" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.74336900858961</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.60863670160808</v>
+      </c>
+      <c r="J31" t="n">
+        <v>423</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.59844977377734</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.62392732954532</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4497</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B33" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.70232680155752</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.46628745439398</v>
+      </c>
+      <c r="J33" t="n">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.00818538461584</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.01742815301046</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1078</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B35" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G35" t="n">
+        <v>56</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.24954625677863</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.56282400692082</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B36" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.1979040142439</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.65590633493623</v>
+      </c>
+      <c r="J36" t="n">
+        <v>398</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B37" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.95042969664599</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.5440269209198</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8064</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.18624966185189</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.8201844761427</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12150</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.0280483575851</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.99291603762629</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4192</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D40" t="n">
+        <v>257</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.1941569150413</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.0622206852928</v>
+      </c>
+      <c r="J40" t="n">
+        <v>28942</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D41" t="n">
+        <v>369</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.47991708735764</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.80747842761266</v>
+      </c>
+      <c r="J41" t="n">
+        <v>968</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B42" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="D42" t="n">
+        <v>203</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G42" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.77423389558412</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.71743740754566</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2804</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D43" t="n">
+        <v>279</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.92021685664587</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.38589950762787</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9422</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B44" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D44" t="n">
+        <v>194</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B45" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D45" t="n">
+        <v>179</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.55337033982386</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.27770715851796</v>
+      </c>
+      <c r="J45" t="n">
+        <v>387</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="D46" t="n">
+        <v>368</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.28003246304304</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.91194305299235</v>
+      </c>
+      <c r="J46" t="n">
+        <v>235</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B47" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.04</v>
+      </c>
+      <c r="D47" t="n">
+        <v>239</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.53827684394668</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.2069825436409</v>
+      </c>
+      <c r="J47" t="n">
+        <v>44</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D48" t="n">
+        <v>162</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.99820896691871</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.86058928218311</v>
+      </c>
+      <c r="J48" t="n">
+        <v>97</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B49" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>299</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.30572415144439</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.90539912099716</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2492</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B50" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="D50" t="n">
+        <v>211</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.01401903409995</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.32158966231866</v>
+      </c>
+      <c r="J50" t="n">
+        <v>552</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B51" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>236</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>56</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.12491199620574</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.04058845231599</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3237</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B52" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>166</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.26221059283939</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.09222298692361</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2208</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B53" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>212</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G53" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.42039124276374</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.16012844921956</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8156</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>12.07579</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78.89401</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D54" t="n">
+        <v>982</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.46410161513775</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>12.08822</v>
+      </c>
+      <c r="B55" t="n">
+        <v>78.89881</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.86</v>
+      </c>
+      <c r="D55" t="n">
+        <v>553</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.33730228574237</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.77023787571455</v>
+      </c>
+      <c r="J55" t="n">
+        <v>240</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>12.09401</v>
+      </c>
+      <c r="B56" t="n">
+        <v>78.9013</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1361</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.673465856889</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.74921709691071</v>
+      </c>
+      <c r="J56" t="n">
+        <v>249</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>12.10333</v>
+      </c>
+      <c r="B57" t="n">
+        <v>78.90157</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="D57" t="n">
+        <v>992</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.22279388409872</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.89104339796861</v>
+      </c>
+      <c r="J57" t="n">
+        <v>384</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>12.12543</v>
+      </c>
+      <c r="B58" t="n">
+        <v>78.90396</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D58" t="n">
+        <v>583</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.9060256927072</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.14392523364486</v>
+      </c>
+      <c r="J58" t="n">
+        <v>116</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11.93971</v>
+      </c>
+      <c r="B59" t="n">
+        <v>78.9265</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="D59" t="n">
+        <v>632</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.66155301548926</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.23868687927838</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19936</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11.64111</v>
+      </c>
+      <c r="B60" t="n">
+        <v>78.96232</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="D60" t="n">
+        <v>572</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.72787846739528</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.67058568314386</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4145</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11.82509</v>
+      </c>
+      <c r="B61" t="n">
+        <v>78.94079</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.46</v>
+      </c>
+      <c r="D61" t="n">
+        <v>348</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.12163576720874</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.728227153424</v>
+      </c>
+      <c r="J61" t="n">
+        <v>250</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>12.50285</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78.9238</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="D62" t="n">
+        <v>316</v>
+      </c>
+      <c r="E62" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>56</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.51229497630201</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.18480168614677</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5448</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11.64373</v>
+      </c>
+      <c r="B63" t="n">
+        <v>78.95391</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>166</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.27360376530882</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.12151686556938</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1876</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12.31727</v>
+      </c>
+      <c r="B64" t="n">
+        <v>78.93606</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.18978265488041</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.73495747310686</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13910</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>12.31686</v>
+      </c>
+      <c r="B65" t="n">
+        <v>78.93538</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.12830923479802</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.74151578812109</v>
+      </c>
+      <c r="J65" t="n">
+        <v>48974</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11.88216</v>
+      </c>
+      <c r="B66" t="n">
+        <v>78.92394</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>376</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7.62940890161622</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.50670207022111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1453</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>